--- a/biology/Botanique/Rinorea_thomasii/Rinorea_thomasii.xlsx
+++ b/biology/Botanique/Rinorea_thomasii/Rinorea_thomasii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rinorea thomasii Achound. est une espèce de plantes de la famille des Violaceae et du genre Rinorea. C'est une plante endémique du Cameroun que l'on trouve depuis le parc national de Korup  jusqu'aux contreforts du mont Cameroun et du mont Koupé[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinorea thomasii Achound. est une espèce de plantes de la famille des Violaceae et du genre Rinorea. C'est une plante endémique du Cameroun que l'on trouve depuis le parc national de Korup  jusqu'aux contreforts du mont Cameroun et du mont Koupé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique thomasii rend hommage au botaniste Duncan Thomas, actif au Cameroun[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique thomasii rend hommage au botaniste Duncan Thomas, actif au Cameroun.
 </t>
         </is>
       </c>
